--- a/export.xlsx
+++ b/export.xlsx
@@ -2,40 +2,131 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
+  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" relationships:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>ДАТА ОТМЕТКИ</t>
+  </si>
+  <si>
+    <t>ВРЕМЯ ОТМЕТКИ</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Тестовый Тест Тестович</t>
+  </si>
+  <si>
+    <t>12.05.2022</t>
+  </si>
+  <si>
+    <t>04:37</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Баданян Ани Левоновна</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Петров Иван Алексеевич</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Иванов Иван Иванович</t>
+  </si>
+  <si>
+    <t>04:38</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>20:01</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>13.05.2022</t>
+  </si>
+  <si>
+    <t>04:53</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Сидоров Сидор Сидорович</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>04:56</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>05:14</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>09:31</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -48,13 +139,13 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
@@ -318,7 +409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
@@ -326,23 +417,201 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>НОМЕР КАРТЫ</v>
-      </c>
-      <c r="B1" t="str">
-        <v>ФИО</v>
-      </c>
-      <c r="C1" t="str">
-        <v>СПЕЦИАЛЬНОСТЬ</v>
-      </c>
-      <c r="D1" t="str">
-        <v>ДАТА ОТМЕТКИ</v>
-      </c>
-      <c r="E1" t="str">
-        <v>ВРЕМЯ ОТМЕТКИ</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/export.xlsx
+++ b/export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -28,12 +28,48 @@
     <t>ВРЕМЯ ОТМЕТКИ</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Тестовый Тест Тестович</t>
+  </si>
+  <si>
+    <t>04.05.2022</t>
+  </si>
+  <si>
+    <t>16:37</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Иванов Иван Иванович</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Баданян Ани Левоновна</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>16:41</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Манукян Артур Аркадьевич</t>
+  </si>
+  <si>
+    <t>22:55</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
-    <t>Тестовый Тест Тестович</t>
-  </si>
-  <si>
     <t>12.05.2022</t>
   </si>
   <si>
@@ -43,9 +79,6 @@
     <t>23</t>
   </si>
   <si>
-    <t>Баданян Ани Левоновна</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -53,9 +86,6 @@
   </si>
   <si>
     <t>25</t>
-  </si>
-  <si>
-    <t>Иванов Иван Иванович</t>
   </si>
   <si>
     <t>04:38</t>
@@ -477,21 +507,21 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -519,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -547,7 +577,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -561,7 +591,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -578,38 +608,108 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/export.xlsx
+++ b/export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -67,76 +67,37 @@
     <t>22:55</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>12.05.2022</t>
-  </si>
-  <si>
-    <t>04:37</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Петров Иван Алексеевич</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>04:38</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>20:01</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>13.05.2022</t>
-  </si>
-  <si>
-    <t>04:53</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Сидоров Сидор Сидорович</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>04:56</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>05:14</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>09:31</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>09.06.2022</t>
+  </si>
+  <si>
+    <t>04:16</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>04:30</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>04:31</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>04:33</t>
   </si>
 </sst>
 </file>
@@ -549,41 +510,41 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -591,125 +552,13 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/export.xlsx
+++ b/export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -28,76 +28,49 @@
     <t>ВРЕМЯ ОТМЕТКИ</t>
   </si>
   <si>
-    <t>15</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>21.06.2022</t>
+  </si>
+  <si>
+    <t>05:30</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Иваныч</t>
+  </si>
+  <si>
+    <t>05:32</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Иванко</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>Тестовый Тест Тестович</t>
   </si>
   <si>
-    <t>04.05.2022</t>
-  </si>
-  <si>
-    <t>16:37</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Иванов Иван Иванович</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Баданян Ани Левоновна</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>16:41</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Манукян Артур Аркадьевич</t>
-  </si>
-  <si>
-    <t>22:55</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>09.06.2022</t>
-  </si>
-  <si>
-    <t>04:16</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>04:30</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>04:31</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>04:33</t>
+    <t>05:37</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -446,35 +419,35 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -482,83 +455,41 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
